--- a/Camera Stage V2.1/8020 Lookup Table.xlsx
+++ b/Camera Stage V2.1/8020 Lookup Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Blender\Camera Stage\Camera Stage V2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9989B5C-89D3-4D98-AA34-DD9AA5F25F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B87600D-F530-4FAF-BDD8-F725595D00C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
+    <workbookView xWindow="33705" yWindow="7065" windowWidth="28800" windowHeight="17685" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,12 +277,334 @@
         </r>
       </text>
     </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{87BB4721-7DD3-4C1C-9AC3-DBE9C2612732}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{11CF86FB-6406-407A-8B25-FC66FF075B42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jing Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EC41B6EF-A14B-4431-93F3-46966043643C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{3B28B756-4C31-44EE-921E-2352665B2A4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{A5A20B13-913E-4BD6-B246-632097817EEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{5FF98DEF-E8CC-41B5-A856-C249083B4731}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{67CF47F7-08FD-495A-8C0F-237FAE03D565}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{1AB5A4D7-5AD1-4517-B19F-ED5097760D66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C06C5EC9-803B-4DA1-AB34-5CA69FD8BD0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{729A0530-3A27-42F6-AAB4-05C925D8CE7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{C05FC879-1618-42DF-824B-F03F5970B903}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{DEFD5B02-9560-4F9E-BE0D-5A6443277E86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{6B5CB056-5D91-43C0-B2AA-E00ECCD2F376}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -344,12 +666,6 @@
     <t>https://8020.net/3342.html</t>
   </si>
   <si>
-    <t>Unitary Amount</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>10 Series 8 Hole - Inside Corner Bracket</t>
   </si>
   <si>
@@ -375,12 +691,48 @@
   </si>
   <si>
     <t>Flanged Mount Swivel Caster: 5.00"</t>
+  </si>
+  <si>
+    <t>https://8020.net/2323.html</t>
+  </si>
+  <si>
+    <t>https://8020.net/2066.html</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>25-5050</t>
+  </si>
+  <si>
+    <t>50mm X 50mm T-Slotted Profile - Eight Open T-Slots</t>
+  </si>
+  <si>
+    <t>https://8020.net/25-5050.html</t>
+  </si>
+  <si>
+    <t>Faces</t>
+  </si>
+  <si>
+    <t>Amount Per Face</t>
+  </si>
+  <si>
+    <t>Length 1144.5 mm</t>
+  </si>
+  <si>
+    <t>Length 84 inches (7 foot, which is the previous length)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,9 +797,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE80C58-C8CD-4FE8-871D-6FA6388C0DDA}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,13 +1128,15 @@
     <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -798,35 +1153,78 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2066</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2*I2</f>
+        <v>499.20000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2323</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">F3*G3</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J10" si="1">H3*I3</f>
+        <v>309.60000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2418</v>
       </c>
@@ -836,8 +1234,25 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -845,13 +1260,30 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -864,8 +1296,25 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>579.59999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -878,8 +1327,25 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -892,41 +1358,194 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4114</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4128</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>453.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4165</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="J11" s="2">
+        <f>H11*I11</f>
+        <v>214.20000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I12" s="2">
+        <v>27.28</v>
+      </c>
+      <c r="J12" s="2">
+        <f>H12*I12</f>
+        <v>654.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I13" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="J13" s="2">
+        <f>H13*I13</f>
+        <v>598.79999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2">
+        <f>SUM(J2:J13)</f>
+        <v>4265.54</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A635E59E-9BFB-41E2-9282-471FA109853E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{CA36BACA-7990-44AE-A17C-6649BDE7C314}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{D0165BEA-4780-4C80-B92E-ED7D17BC5831}"/>
@@ -936,67 +1555,469 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{82C66193-0D91-4C21-A1F1-1A35948D4D1B}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{0A51D118-1AB3-4C29-B182-2F155936FB10}"/>
     <hyperlink ref="E11" r:id="rId8" xr:uid="{F5726999-0377-43F2-B30D-6C7D7BF9F771}"/>
+    <hyperlink ref="E3" r:id="rId9" xr:uid="{4C5559E4-A5F0-4C06-9783-C75DBCAF0992}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{A8D0549A-00B7-4B93-BD5E-040AD926726B}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{25A013D5-433B-4480-8B62-EFD463CC15C9}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{55234B07-8E48-4B1E-9304-AF159D93A21B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A635E59E-9BFB-41E2-9282-471FA109853E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B1CC41-1706-403A-93FB-ECE25D48B621}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B1CC41-1706-403A-93FB-ECE25D48B621}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2066</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2*I2</f>
+        <v>499.20000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="0">F3*G3</f>
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J10" si="1">H3*I3</f>
+        <v>309.60000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2418</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3062</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3280</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>579.59999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3330</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3342</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4114</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4128</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>453.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>4165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="J11" s="2">
+        <f>H11*I11</f>
+        <v>214.20000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I12" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="J12" s="2">
+        <f>H12*I12</f>
+        <v>598.79999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2">
+        <f>SUM(J2:J12)</f>
+        <v>3610.8199999999997</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A8">
     <sortCondition ref="A1"/>
   </sortState>
+  <conditionalFormatting sqref="J2:J12">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6EB51064-9D1C-43A4-8375-CAF3A2E2007A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{91BC00EA-18F8-4FD6-AB8C-77A5B3CEA1DC}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{EDB82A4F-C0A2-4A3B-999D-3941824EE6F5}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{98D89393-86FC-4098-8109-0BB3635F2C28}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{08F6D3E6-CCC3-454B-81A2-F96BCEB9D988}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{7FD653B7-09BB-4E55-BC72-022C9F77DDB3}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{05384317-2833-4CD2-955F-92A962EB80CC}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{1A78E779-E940-4DC1-8346-824995F7485A}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{5DB2D9AC-4E8B-422F-AA2C-2D36B6E1C7E4}"/>
+    <hyperlink ref="E3" r:id="rId9" xr:uid="{D573B6AF-622F-4775-963B-AE3EF283159F}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{DD595FF4-A1C9-4C56-A62F-0337AED1DC2A}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{EA918437-FA14-4118-A3E5-CF84EDF3C7E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId12"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6EB51064-9D1C-43A4-8375-CAF3A2E2007A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Camera Stage V2.1/8020 Lookup Table.xlsx
+++ b/Camera Stage V2.1/8020 Lookup Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Blender\Camera Stage\Camera Stage V2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B87600D-F530-4FAF-BDD8-F725595D00C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57164907-18C1-4E8D-8FF7-1BEEDDAB7F3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33705" yWindow="7065" windowWidth="28800" windowHeight="17685" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
+    <workbookView xWindow="38280" yWindow="5820" windowWidth="29040" windowHeight="18240" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -800,7 +800,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Camera Stage V2.1/8020 Lookup Table.xlsx
+++ b/Camera Stage V2.1/8020 Lookup Table.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Blender\Camera Stage\Camera Stage V2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57164907-18C1-4E8D-8FF7-1BEEDDAB7F3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE7F34-9F24-4FC4-8E5C-EF01E17DE7CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5820" windowWidth="29040" windowHeight="18240" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
+    <workbookView xWindow="38280" yWindow="5820" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Complete" sheetId="1" r:id="rId1"/>
+    <sheet name="Save" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -335,55 +335,55 @@
     <author>Jing Yang</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EC41B6EF-A14B-4431-93F3-46966043643C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{3B28B756-4C31-44EE-921E-2352665B2A4B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{A5A20B13-913E-4BD6-B246-632097817EEC}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{18073C86-67F0-4A08-876B-0CEBFE1FCC69}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{10455E86-478E-4C1F-8EE4-1D0B68BCD2B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{7AA73BC9-2CA8-4E35-A0BF-53A1BE6B9892}">
       <text>
         <r>
           <rPr>
@@ -407,175 +407,199 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{5FF98DEF-E8CC-41B5-A856-C249083B4731}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{67CF47F7-08FD-495A-8C0F-237FAE03D565}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{1AB5A4D7-5AD1-4517-B19F-ED5097760D66}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C06C5EC9-803B-4DA1-AB34-5CA69FD8BD0E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{729A0530-3A27-42F6-AAB4-05C925D8CE7E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{C05FC879-1618-42DF-824B-F03F5970B903}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{DEFD5B02-9560-4F9E-BE0D-5A6443277E86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jing Yang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{6B5CB056-5D91-43C0-B2AA-E00ECCD2F376}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{EDA46487-B8B8-401B-B7EC-24F44F4656D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{A01562A5-1577-480F-AAD6-90AE7B4563D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{0125FB93-414E-4AE6-BB30-3A3507B402B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{B029D6F0-86B5-4202-A530-35402F497406}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{58FC9203-0B1D-4655-A87A-8014B8E30AB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{F3A1006E-C038-4BB0-B2D0-DEE5077A4505}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{40000718-8895-4BCB-B125-2380D78B7ADB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{A2B28574-271B-4A5F-9574-16ED9B299449}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jing Yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{4A2D48F2-5E36-4B0B-BCF3-5DD45116EBB8}">
       <text>
         <r>
           <rPr>
@@ -604,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Item</t>
   </si>
@@ -724,6 +748,12 @@
   </si>
   <si>
     <t>Length 84 inches (7 foot, which is the previous length)</t>
+  </si>
+  <si>
+    <t>Existed</t>
+  </si>
+  <si>
+    <t>Needed</t>
   </si>
 </sst>
 </file>
@@ -797,10 +827,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1118,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE80C58-C8CD-4FE8-871D-6FA6388C0DDA}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,11 +1617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B1CC41-1706-403A-93FB-ECE25D48B621}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9813E69-C550-4AC3-B67F-7CD9E2476428}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,14 +1631,16 @@
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1630,98 +1665,125 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>2066</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <f>F2*G2</f>
         <v>24</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>H2-I2</f>
+        <v>24</v>
+      </c>
+      <c r="K2" s="5">
         <v>20.8</v>
       </c>
-      <c r="J2" s="2">
-        <f>H2*I2</f>
+      <c r="L2" s="5">
+        <f>J2*K2</f>
         <v>499.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2323</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H13" si="0">F3*G3</f>
+        <v>16</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J13" si="1">H3-I3</f>
         <v>6</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H12" si="0">F3*G3</f>
+      <c r="K3" s="5">
+        <v>25.8</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L13" si="2">J3*K3</f>
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2418</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="3">
         <v>12</v>
       </c>
-      <c r="I3" s="2">
-        <v>25.8</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J10" si="1">H3*I3</f>
-        <v>309.60000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2418</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
         <v>15.75</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="5">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1737,22 +1799,29 @@
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>8</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.19</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="1"/>
-        <v>12.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="5">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1766,24 +1835,31 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>120</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>840</v>
-      </c>
-      <c r="I6" s="2">
+        <v>800</v>
+      </c>
+      <c r="I6" s="3">
+        <v>300</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.69</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="1"/>
-        <v>579.59999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="5">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1799,22 +1875,29 @@
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="G7">
-        <v>7</v>
+      <c r="G7" s="3">
+        <v>8</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="I7" s="2">
+        <v>64</v>
+      </c>
+      <c r="I7">
+        <v>64</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.36</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
-        <v>20.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1828,24 +1911,31 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="I8" s="2">
+        <v>800</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.3</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -1856,24 +1946,31 @@
         <v>21</v>
       </c>
       <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="I9" s="2">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>5.35</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="1"/>
-        <v>374.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -1886,22 +1983,29 @@
       <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>7</v>
+      <c r="G10" s="3">
+        <v>8</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="I10" s="2">
+        <v>48</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K10" s="2">
         <v>10.8</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="1"/>
-        <v>453.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="5">
+        <f t="shared" si="2"/>
+        <v>410.40000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -1912,24 +2016,31 @@
         <v>25</v>
       </c>
       <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I11" s="2">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>5.95</v>
       </c>
-      <c r="J11" s="2">
-        <f>H11*I11</f>
-        <v>214.20000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1937,44 +2048,86 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I12" s="2">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
+        <v>27.28</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="2"/>
+        <v>436.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K13" s="2">
         <v>49.9</v>
       </c>
-      <c r="J12" s="2">
-        <f>H12*I12</f>
-        <v>598.79999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="2" t="s">
+      <c r="L13" s="5">
+        <f t="shared" si="2"/>
+        <v>548.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="2">
-        <f>SUM(J2:J12)</f>
-        <v>3610.8199999999997</v>
+      <c r="L14" s="2">
+        <f>SUM(L2:L13)</f>
+        <v>2617.2800000000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A8">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <conditionalFormatting sqref="J2:J12">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="L2:L13">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1982,31 +2135,32 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6EB51064-9D1C-43A4-8375-CAF3A2E2007A}</x14:id>
+          <x14:id>{2652F3B5-2E86-42A9-B966-E27751C90E41}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{91BC00EA-18F8-4FD6-AB8C-77A5B3CEA1DC}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{EDB82A4F-C0A2-4A3B-999D-3941824EE6F5}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{98D89393-86FC-4098-8109-0BB3635F2C28}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{08F6D3E6-CCC3-454B-81A2-F96BCEB9D988}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{7FD653B7-09BB-4E55-BC72-022C9F77DDB3}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{05384317-2833-4CD2-955F-92A962EB80CC}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{1A78E779-E940-4DC1-8346-824995F7485A}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{5DB2D9AC-4E8B-422F-AA2C-2D36B6E1C7E4}"/>
-    <hyperlink ref="E3" r:id="rId9" xr:uid="{D573B6AF-622F-4775-963B-AE3EF283159F}"/>
-    <hyperlink ref="E2" r:id="rId10" xr:uid="{DD595FF4-A1C9-4C56-A62F-0337AED1DC2A}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{EA918437-FA14-4118-A3E5-CF84EDF3C7E2}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{A315C9D7-93DA-45C4-92BF-D56BA570335E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{546DACE5-3371-4DD1-BF06-C4DBA8A7962B}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{6AAA4B23-7B10-423F-89FD-F20FF3A73E50}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{0DEC386B-8BCD-4E90-BC3C-6AB0B0E4F829}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{3E0C56FA-ACE7-4372-A36F-B4D8989A3556}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{ECA0C162-B822-4FDD-A169-E70566567AD5}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{C65870D3-A2B1-4016-93C9-51388289A1C5}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{BBA9198E-071A-4CFA-916E-E8EE8783FBE9}"/>
+    <hyperlink ref="E3" r:id="rId9" xr:uid="{084BB165-99C8-4DFF-BBAD-940FFBC17636}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{98B5B689-122A-495C-99D6-B85AD4EE2ABD}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{5556F4FA-ACF3-4CE4-A2A3-21C5BEA36395}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{F25396E8-F777-4A67-9DE3-A2EAE1874252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6EB51064-9D1C-43A4-8375-CAF3A2E2007A}">
+          <x14:cfRule type="dataBar" id="{2652F3B5-2E86-42A9-B966-E27751C90E41}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2014,7 +2168,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J2:J12</xm:sqref>
+          <xm:sqref>L2:L13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Camera Stage V2.1/8020 Lookup Table.xlsx
+++ b/Camera Stage V2.1/8020 Lookup Table.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Blender\Camera Stage\Camera Stage V2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyang/Documents/Blender/CameraStage/Camera Stage V2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE7F34-9F24-4FC4-8E5C-EF01E17DE7CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE148B36-5743-E44A-A52C-28BC35B990E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5820" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="32580" windowHeight="20540" activeTab="2" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
     <sheet name="Save" sheetId="2" r:id="rId2"/>
+    <sheet name="Existing 8020" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -341,7 +341,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -350,7 +350,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -365,7 +365,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -374,7 +374,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -389,7 +389,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -398,7 +398,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -413,7 +413,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -422,7 +422,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -437,7 +437,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -446,7 +446,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -461,7 +461,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -470,7 +470,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -485,7 +485,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -494,7 +494,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -509,7 +509,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -518,7 +518,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -533,7 +533,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -542,7 +542,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -557,7 +557,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -566,7 +566,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Item</t>
   </si>
@@ -754,6 +754,12 @@
   </si>
   <si>
     <t>Needed</t>
+  </si>
+  <si>
+    <t>Lengh</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +810,32 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1155,21 +1187,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2066</v>
       </c>
@@ -1229,7 +1261,7 @@
         <v>499.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2323</v>
       </c>
@@ -1257,7 +1289,7 @@
         <v>309.60000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2418</v>
       </c>
@@ -1285,7 +1317,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1316,7 +1348,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1347,7 +1379,7 @@
         <v>579.59999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1378,7 +1410,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1409,7 +1441,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -1437,7 +1469,7 @@
         <v>374.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -1465,7 +1497,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -1493,7 +1525,7 @@
         <v>214.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1524,7 +1556,7 @@
         <v>654.72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1555,7 +1587,7 @@
         <v>598.79999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1620,27 +1652,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9813E69-C550-4AC3-B67F-7CD9E2476428}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2066</v>
       </c>
@@ -1713,7 +1745,7 @@
         <v>499.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2323</v>
       </c>
@@ -1748,7 +1780,7 @@
         <v>154.80000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2418</v>
       </c>
@@ -1783,7 +1815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1821,7 +1853,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1835,31 +1867,31 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3">
         <v>8</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="I6" s="3">
         <v>300</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K6" s="2">
         <v>0.69</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>234.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1897,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1911,31 +1943,31 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>928</v>
       </c>
       <c r="I8">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K8" s="2">
         <v>0.3</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -1970,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -2005,7 +2037,7 @@
         <v>410.40000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -2040,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2078,7 +2110,7 @@
         <v>436.48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2116,13 +2148,13 @@
         <v>548.9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="2">
         <f>SUM(L2:L13)</f>
-        <v>2617.2800000000002</v>
+        <v>2530.88</v>
       </c>
     </row>
   </sheetData>
@@ -2174,4 +2206,179 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD67629-DBE7-F847-812F-96EA33825930}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21.5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Camera Stage V2.1/8020 Lookup Table.xlsx
+++ b/Camera Stage V2.1/8020 Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyang/Documents/Blender/CameraStage/Camera Stage V2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Blender\Camera Stage\Camera Stage V2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE148B36-5743-E44A-A52C-28BC35B990E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576A5B7-02A7-4D96-AC90-D1F32521C6EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="32580" windowHeight="20540" activeTab="2" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240" activeTab="1" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -628,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Item</t>
   </si>
@@ -760,6 +761,24 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Difference To 84</t>
+  </si>
+  <si>
+    <t>Difference To 45</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Available Pair</t>
   </si>
 </sst>
 </file>
@@ -769,7 +788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +856,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -859,19 +884,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1184,24 +1231,24 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="2"/>
-    <col min="10" max="10" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2066</v>
       </c>
@@ -1261,7 +1308,7 @@
         <v>499.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2323</v>
       </c>
@@ -1289,7 +1336,7 @@
         <v>309.60000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2418</v>
       </c>
@@ -1317,7 +1364,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1348,7 +1395,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1379,7 +1426,7 @@
         <v>579.59999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1410,7 +1457,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1441,7 +1488,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -1469,7 +1516,7 @@
         <v>374.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -1497,7 +1544,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -1525,7 +1572,7 @@
         <v>214.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1556,7 +1603,7 @@
         <v>654.72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1587,7 +1634,7 @@
         <v>598.79999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1652,27 +1699,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9813E69-C550-4AC3-B67F-7CD9E2476428}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1710,7 +1757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2066</v>
       </c>
@@ -1745,7 +1792,7 @@
         <v>499.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2323</v>
       </c>
@@ -1780,7 +1827,7 @@
         <v>154.80000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2418</v>
       </c>
@@ -1815,7 +1862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1853,7 +1900,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1891,7 +1938,7 @@
         <v>234.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1929,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1967,7 +2014,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -2002,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -2037,7 +2084,7 @@
         <v>410.40000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -2061,18 +2108,17 @@
         <v>16</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2">
         <v>5.95</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2099,18 +2145,17 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K12" s="2">
         <v>27.28</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>436.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>272.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2137,24 +2182,23 @@
         <v>5</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>49.9</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="2"/>
-        <v>548.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="2">
         <f>SUM(L2:L13)</f>
-        <v>2530.88</v>
+        <v>2199.1</v>
       </c>
     </row>
   </sheetData>
@@ -2210,175 +2254,555 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD67629-DBE7-F847-812F-96EA33825930}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>72</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>84-A2</f>
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <f>45-A2</f>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>67</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C20" si="0">84-A3</f>
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D20" si="1">45-A3</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>55</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>54</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C14">
+        <f>84-A14</f>
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <f>45-A14</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <f>SUM(A23:B23)</f>
         <v>44</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D23">
+        <f>MIN(SUMIF($A$2:$A$20, A23, $B$2:$B$20), SUMIF($A$2:$A$20, B23, $B$2:$B$20))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C32" si="2">SUM(A24:B24)</f>
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D32" si="3">MIN(SUMIF($A$2:$A$20, A24, $B$2:$B$20), SUMIF($A$2:$A$20, B24, $B$2:$B$20))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21.5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f>SUM(D23:D27)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>36</v>
       </c>
-      <c r="B10">
+      <c r="B32" s="3">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>21.5</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="E32">
+        <f>SUM(D28:D32)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D1254236-410C-4251-BFE2-B2F3F0E9C018}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D1254236-410C-4251-BFE2-B2F3F0E9C018}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Camera Stage V2.1/8020 Lookup Table.xlsx
+++ b/Camera Stage V2.1/8020 Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Blender\Camera Stage\Camera Stage V2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyang/Documents/Blender/CameraStage/Camera Stage V2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3576A5B7-02A7-4D96-AC90-D1F32521C6EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D5DA37-752C-5242-A263-2697E1F078EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240" activeTab="1" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="32580" windowHeight="20540" activeTab="1" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -582,7 +581,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -591,7 +590,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -897,17 +896,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1234,21 +1223,21 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2066</v>
       </c>
@@ -1308,7 +1297,7 @@
         <v>499.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2323</v>
       </c>
@@ -1336,7 +1325,7 @@
         <v>309.60000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2418</v>
       </c>
@@ -1364,7 +1353,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1395,7 +1384,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1426,7 +1415,7 @@
         <v>579.59999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1457,7 +1446,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1488,7 +1477,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -1516,7 +1505,7 @@
         <v>374.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -1544,7 +1533,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -1572,7 +1561,7 @@
         <v>214.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1603,7 +1592,7 @@
         <v>654.72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1634,7 +1623,7 @@
         <v>598.79999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1699,27 +1688,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9813E69-C550-4AC3-B67F-7CD9E2476428}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1757,7 +1746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2066</v>
       </c>
@@ -1768,31 +1757,31 @@
         <v>30</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
         <v>8</v>
       </c>
       <c r="H2" s="3">
         <f>F2*G2</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3">
         <f>H2-I2</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5">
         <v>20.8</v>
       </c>
       <c r="L2" s="5">
         <f>J2*K2</f>
-        <v>499.20000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>332.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2323</v>
       </c>
@@ -1816,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J13" si="1">H3-I3</f>
+        <f t="shared" ref="J3:J10" si="1">H3-I3</f>
         <v>6</v>
       </c>
       <c r="K3" s="5">
@@ -1827,7 +1816,7 @@
         <v>154.80000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2418</v>
       </c>
@@ -1848,21 +1837,21 @@
         <v>16</v>
       </c>
       <c r="I4" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" s="5">
         <v>15.75</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1900,7 +1889,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1938,7 +1927,7 @@
         <v>234.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1976,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -2014,7 +2003,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -2049,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -2060,31 +2049,31 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>8</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2">
         <v>10.8</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="2"/>
-        <v>410.40000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>237.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -2118,7 +2107,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2142,9 +2131,10 @@
         <v>24</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J12" s="3">
+        <f>H12-I12</f>
         <v>10</v>
       </c>
       <c r="K12" s="2">
@@ -2155,7 +2145,7 @@
         <v>272.8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2179,9 +2169,10 @@
         <v>16</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3">
+        <f>H13-I13</f>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -2192,13 +2183,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="2">
         <f>SUM(L2:L13)</f>
-        <v>2199.1</v>
+        <v>1828.4</v>
       </c>
     </row>
   </sheetData>
@@ -2257,15 +2248,15 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2279,7 +2270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>72</v>
       </c>
@@ -2295,7 +2286,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>67</v>
       </c>
@@ -2311,7 +2302,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>55</v>
       </c>
@@ -2327,7 +2318,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>54</v>
       </c>
@@ -2343,7 +2334,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2359,7 +2350,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>48</v>
       </c>
@@ -2375,7 +2366,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>44</v>
       </c>
@@ -2391,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>36</v>
       </c>
@@ -2407,7 +2398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -2423,7 +2414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>30</v>
       </c>
@@ -2439,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>28</v>
       </c>
@@ -2455,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>26</v>
       </c>
@@ -2471,7 +2462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>24</v>
       </c>
@@ -2487,7 +2478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>22</v>
       </c>
@@ -2503,7 +2494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>21.5</v>
       </c>
@@ -2519,7 +2510,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>20</v>
       </c>
@@ -2535,7 +2526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -2551,7 +2542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2567,7 +2558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>12</v>
       </c>
@@ -2583,7 +2574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2597,7 +2588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12</v>
       </c>
@@ -2613,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
@@ -2629,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>18</v>
       </c>
@@ -2645,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -2661,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21.5</v>
       </c>
@@ -2681,7 +2672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2697,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2713,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2729,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2745,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>36</v>
       </c>

--- a/Camera Stage V2.1/8020 Lookup Table.xlsx
+++ b/Camera Stage V2.1/8020 Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyang/Documents/Blender/CameraStage/Camera Stage V2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Blender\Camera Stage\Camera Stage V2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D5DA37-752C-5242-A263-2697E1F078EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B0541-51CD-4459-8A8F-868F94BA06AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="32580" windowHeight="20540" activeTab="1" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240" activeTab="1" xr2:uid="{C37908A8-A352-4985-87F1-E918CC87A731}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1223,21 +1224,21 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="2"/>
-    <col min="10" max="10" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2066</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>499.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2323</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>309.60000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2418</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>579.59999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>374.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>214.20000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>654.72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>598.79999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1689,26 +1690,26 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2066</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>332.8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2323</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>154.80000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2418</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3062</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3280</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>234.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3330</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3342</v>
       </c>
@@ -1979,31 +1980,31 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>928</v>
+        <v>1168</v>
       </c>
       <c r="I8">
         <v>348</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>580</v>
+        <v>820</v>
       </c>
       <c r="K8" s="2">
         <v>0.3</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4114</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4128</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>237.60000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4165</v>
       </c>
@@ -2084,19 +2085,20 @@
         <v>25</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3">
         <v>8</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I11">
         <v>16</v>
       </c>
       <c r="J11" s="3">
+        <f>H11-I11</f>
         <v>64</v>
       </c>
       <c r="K11" s="2">
@@ -2107,7 +2109,7 @@
         <v>380.8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>272.8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2183,13 +2185,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="2">
         <f>SUM(L2:L13)</f>
-        <v>1828.4</v>
+        <v>1900.4</v>
       </c>
     </row>
   </sheetData>
@@ -2248,15 +2250,15 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>72</v>
       </c>
@@ -2286,7 +2288,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>67</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>55</v>
       </c>
@@ -2318,7 +2320,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>54</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>48</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>36</v>
       </c>
@@ -2398,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>30</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>28</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>26</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>24</v>
       </c>
@@ -2478,7 +2480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>22</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>21.5</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>20</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>12</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21.5</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2688,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2720,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>36</v>
       </c>
